--- a/db/db-challenge2/データベース定義書-chatwork.xlsx
+++ b/db/db-challenge2/データベース定義書-chatwork.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23011"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33C81F20-ED8B-4B13-80AF-D391E03DD388}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15F7BA57-7FC1-4509-B36D-4CD33E04F727}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="126">
   <si>
     <t>改定履歴</t>
   </si>
@@ -60,6 +60,9 @@
     <t>テーブル作成</t>
   </si>
   <si>
+    <t>masaki</t>
+  </si>
+  <si>
     <t>chat_members</t>
   </si>
   <si>
@@ -70,6 +73,12 @@
   </si>
   <si>
     <t>tasks</t>
+  </si>
+  <si>
+    <t>Fix:テーブル名typo回収</t>
+  </si>
+  <si>
+    <t>Fix:カラム名変更　is_send_permisson-&gt;is_can_send</t>
   </si>
   <si>
     <t>table_names</t>
@@ -679,9 +688,6 @@
     <t>updated_at</t>
   </si>
   <si>
-    <t>chat_membrs</t>
-  </si>
-  <si>
     <t>チャットルームに参加しているユーザーに関する情報を持つテーブル</t>
   </si>
   <si>
@@ -721,7 +727,7 @@
     <t>送信許可フラグ</t>
   </si>
   <si>
-    <t>is_send_permission</t>
+    <t>is_can_send</t>
   </si>
   <si>
     <t>1:ファイル送信許可</t>
@@ -745,13 +751,10 @@
     <t>created_by_user_id</t>
   </si>
   <si>
-    <t>update_at</t>
-  </si>
-  <si>
     <t>更新ユーザーID</t>
   </si>
   <si>
-    <t>update_by_user_id</t>
+    <t>updated_by_user_id</t>
   </si>
   <si>
     <t>チャット内容に関する情報を持つテーブル</t>
@@ -775,9 +778,6 @@
     <t>file_name</t>
   </si>
   <si>
-    <t>updated_by_user_id</t>
-  </si>
-  <si>
     <t>タスク関連機能に関する情報を持つテーブル</t>
   </si>
   <si>
@@ -790,7 +790,7 @@
     <t>担当ユーザーID</t>
   </si>
   <si>
-    <t>_x0008_assign_user_id</t>
+    <t>assign_user_id</t>
   </si>
   <si>
     <t>タスク内容</t>
@@ -1235,8 +1235,8 @@
   </sheetPr>
   <dimension ref="A1:Z1030"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1355,7 +1355,9 @@
       <c r="C4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -1384,12 +1386,14 @@
         <v>43998</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -1418,12 +1422,14 @@
         <v>43998</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -1452,12 +1458,14 @@
         <v>43998</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1486,12 +1494,14 @@
         <v>43998</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -1516,10 +1526,18 @@
       <c r="Z8" s="3"/>
     </row>
     <row r="9" spans="1:26" ht="12.75">
-      <c r="A9" s="8"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="A9" s="8">
+        <v>43999</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1544,10 +1562,18 @@
       <c r="Z9" s="3"/>
     </row>
     <row r="10" spans="1:26" ht="12.75">
-      <c r="A10" s="8"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="A10" s="8">
+        <v>43999</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -30164,7 +30190,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
@@ -30180,10 +30206,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
@@ -30199,10 +30225,10 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
@@ -30219,34 +30245,34 @@
     <row r="4" spans="1:13">
       <c r="A4" s="24"/>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="L4" s="24"/>
       <c r="M4" s="24"/>
@@ -30258,26 +30284,26 @@
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K5" s="20"/>
       <c r="L5" s="24"/>
@@ -30290,20 +30316,20 @@
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F6" s="16">
         <v>100</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="18" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
@@ -30318,13 +30344,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F7" s="16">
         <v>1000</v>
@@ -30344,13 +30370,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F8" s="16">
         <v>1</v>
@@ -30359,12 +30385,12 @@
         <v>0</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
       <c r="K8" s="21" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="L8" s="24"/>
       <c r="M8" s="24"/>
@@ -30376,18 +30402,18 @@
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="20"/>
       <c r="H9" s="19" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
@@ -30402,20 +30428,20 @@
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F10" s="16">
         <v>11</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="19" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
@@ -30430,18 +30456,18 @@
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="20"/>
       <c r="H11" s="19" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
@@ -30456,20 +30482,20 @@
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F12" s="16">
         <v>11</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="18" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
@@ -30533,10 +30559,10 @@
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
@@ -30550,7 +30576,7 @@
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
@@ -30566,34 +30592,34 @@
     <row r="4" spans="1:11" ht="12.75">
       <c r="A4" s="24"/>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
@@ -30603,26 +30629,26 @@
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K5" s="20"/>
     </row>
@@ -30633,20 +30659,20 @@
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F6" s="16">
         <v>100</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="18" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
@@ -30659,20 +30685,20 @@
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F7" s="16">
         <v>100</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="18" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
@@ -30685,20 +30711,20 @@
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>66</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>63</v>
       </c>
       <c r="F8" s="16">
         <v>100</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="18" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
@@ -30711,13 +30737,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F9" s="16">
         <v>1000</v>
@@ -30735,13 +30761,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F10" s="16">
         <v>13</v>
@@ -30759,13 +30785,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F11" s="16">
         <v>13</v>
@@ -30783,13 +30809,13 @@
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F12" s="16">
         <v>1</v>
@@ -30798,7 +30824,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
@@ -30811,18 +30837,18 @@
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="20"/>
       <c r="H13" s="18" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
@@ -30835,18 +30861,18 @@
         <v>10</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="20"/>
       <c r="H14" s="18" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
@@ -30905,7 +30931,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -30926,7 +30952,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
@@ -30940,10 +30966,10 @@
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
@@ -30957,7 +30983,7 @@
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
@@ -30973,34 +30999,34 @@
     <row r="4" spans="1:11" ht="12.75">
       <c r="A4" s="24"/>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
@@ -31010,23 +31036,23 @@
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J5" s="13"/>
       <c r="K5" s="20"/>
@@ -31038,23 +31064,23 @@
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F6" s="16">
         <v>11</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="18" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
@@ -31066,18 +31092,18 @@
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="20"/>
       <c r="H7" s="18" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
@@ -31248,7 +31274,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -31271,7 +31297,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
@@ -31285,10 +31311,10 @@
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
@@ -31302,7 +31328,7 @@
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
@@ -31318,34 +31344,34 @@
     <row r="4" spans="1:11" ht="12.75">
       <c r="A4" s="24"/>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
@@ -31355,26 +31381,26 @@
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K5" s="20"/>
     </row>
@@ -31385,20 +31411,20 @@
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F6" s="16">
         <v>100</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="18" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
@@ -31411,13 +31437,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F7" s="16">
         <v>1000</v>
@@ -31435,13 +31461,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F8" s="16">
         <v>1</v>
@@ -31450,12 +31476,12 @@
         <v>1</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
       <c r="K8" s="20" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75">
@@ -31465,13 +31491,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F9" s="16">
         <v>1</v>
@@ -31480,12 +31506,12 @@
         <v>0</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="20" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75">
@@ -31495,13 +31521,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F10" s="16">
         <v>1</v>
@@ -31510,12 +31536,12 @@
         <v>0</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75">
@@ -31525,18 +31551,18 @@
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="20"/>
       <c r="H11" s="18" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
@@ -31549,20 +31575,20 @@
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F12" s="16">
         <v>11</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="18" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
@@ -31575,18 +31601,18 @@
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="20"/>
       <c r="H13" s="18" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
@@ -31599,20 +31625,20 @@
         <v>10</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F14" s="16">
         <v>11</v>
       </c>
       <c r="G14" s="20"/>
       <c r="H14" s="18" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
@@ -31691,7 +31717,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
@@ -31705,10 +31731,10 @@
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
@@ -31722,7 +31748,7 @@
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
@@ -31738,34 +31764,34 @@
     <row r="4" spans="1:11" ht="12.75">
       <c r="A4" s="24"/>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
@@ -31775,26 +31801,26 @@
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K5" s="20"/>
     </row>
@@ -31805,23 +31831,23 @@
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F6" s="16">
         <v>11</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="18" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
@@ -31833,20 +31859,20 @@
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F7" s="16">
         <v>1000</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="18" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
@@ -31859,13 +31885,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F8" s="16">
         <v>100</v>
@@ -31883,13 +31909,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F9" s="16">
         <v>1</v>
@@ -31898,12 +31924,12 @@
         <v>0</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="20" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75">
@@ -31913,18 +31939,18 @@
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="20"/>
       <c r="H10" s="18" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
@@ -31937,20 +31963,20 @@
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F11" s="16">
         <v>11</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="18" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
@@ -31963,18 +31989,18 @@
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="15"/>
       <c r="H12" s="18" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
@@ -31987,20 +32013,20 @@
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F13" s="17">
         <v>11</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="18" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
@@ -32073,9 +32099,9 @@
   </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -32093,7 +32119,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
@@ -32107,7 +32133,7 @@
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B2" s="31" t="s">
         <v>114</v>
@@ -32124,7 +32150,7 @@
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
@@ -32140,34 +32166,34 @@
     <row r="4" spans="1:11" ht="12.75">
       <c r="A4" s="24"/>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
@@ -32183,20 +32209,20 @@
         <v>116</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K5" s="20"/>
     </row>
@@ -32207,23 +32233,23 @@
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F6" s="16">
         <v>11</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="18" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
@@ -32241,14 +32267,14 @@
         <v>118</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F7" s="16">
         <v>11</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="18" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
@@ -32267,14 +32293,14 @@
         <v>120</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F8" s="16">
         <v>1000</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="18" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
@@ -32293,7 +32319,7 @@
         <v>122</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="20"/>
@@ -32315,7 +32341,7 @@
         <v>124</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F10" s="16">
         <v>1</v>
@@ -32324,7 +32350,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
@@ -32339,13 +32365,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F11" s="16">
         <v>1</v>
@@ -32354,12 +32380,12 @@
         <v>0</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75">
@@ -32369,18 +32395,18 @@
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="15"/>
       <c r="H12" s="18" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
@@ -32393,20 +32419,20 @@
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F13" s="17">
         <v>11</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="18" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
@@ -32419,18 +32445,18 @@
         <v>10</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="20"/>
       <c r="H14" s="18" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
@@ -32443,20 +32469,20 @@
         <v>11</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F15" s="17">
         <v>11</v>
       </c>
       <c r="G15" s="20"/>
       <c r="H15" s="18" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>

--- a/db/db-challenge2/データベース定義書-chatwork.xlsx
+++ b/db/db-challenge2/データベース定義書-chatwork.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23014"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15F7BA57-7FC1-4509-B36D-4CD33E04F727}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C6DC688-5309-4872-98DB-52C4937DB08E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="126">
   <si>
     <t>改定履歴</t>
   </si>
@@ -727,7 +727,7 @@
     <t>送信許可フラグ</t>
   </si>
   <si>
-    <t>is_can_send</t>
+    <t>is_sendable</t>
   </si>
   <si>
     <t>1:ファイル送信許可</t>
@@ -1005,10 +1005,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1235,8 +1235,8 @@
   </sheetPr>
   <dimension ref="A1:Z1030"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1316,7 +1316,7 @@
         <v>43955</v>
       </c>
       <c r="B3" s="7"/>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="25" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -1346,7 +1346,7 @@
       <c r="Z3" s="3"/>
     </row>
     <row r="4" spans="1:26" ht="12.75">
-      <c r="A4" s="26">
+      <c r="A4" s="24">
         <v>43998</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -1382,7 +1382,7 @@
       <c r="Z4" s="3"/>
     </row>
     <row r="5" spans="1:26" ht="12.75">
-      <c r="A5" s="26">
+      <c r="A5" s="24">
         <v>43998</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -1418,7 +1418,7 @@
       <c r="Z5" s="3"/>
     </row>
     <row r="6" spans="1:26" ht="12.75">
-      <c r="A6" s="26">
+      <c r="A6" s="24">
         <v>43998</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -1454,7 +1454,7 @@
       <c r="Z6" s="3"/>
     </row>
     <row r="7" spans="1:26" ht="12.75">
-      <c r="A7" s="26">
+      <c r="A7" s="24">
         <v>43998</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -1490,7 +1490,7 @@
       <c r="Z7" s="3"/>
     </row>
     <row r="8" spans="1:26" ht="12.75">
-      <c r="A8" s="26">
+      <c r="A8" s="24">
         <v>43998</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -30194,15 +30194,15 @@
       </c>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
@@ -30213,15 +30213,15 @@
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
@@ -30232,18 +30232,18 @@
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="24"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
@@ -30274,11 +30274,11 @@
       <c r="K4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="24"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B12" si="0">ROW()-4</f>
         <v>1</v>
@@ -30306,11 +30306,11 @@
         <v>35</v>
       </c>
       <c r="K5" s="20"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="25"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="27"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="24"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -30334,11 +30334,11 @@
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="25"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="27"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="24"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -30360,11 +30360,11 @@
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="24"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -30392,11 +30392,11 @@
       <c r="K8" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="24"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -30418,11 +30418,11 @@
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="24"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -30446,11 +30446,11 @@
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="15"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="24"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -30472,11 +30472,11 @@
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="15"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="24"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -30500,8 +30500,8 @@
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="15"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -30549,13 +30549,13 @@
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
@@ -30566,13 +30566,13 @@
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
@@ -30581,16 +30581,16 @@
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
       <c r="D3" s="31"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="24"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
@@ -30623,7 +30623,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A5" s="24"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
@@ -30653,7 +30653,7 @@
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="24"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -30679,7 +30679,7 @@
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="24"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -30705,7 +30705,7 @@
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="24"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -30731,7 +30731,7 @@
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="24"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -30755,7 +30755,7 @@
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="24"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -30779,7 +30779,7 @@
       <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="24"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -30803,7 +30803,7 @@
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="24"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -30831,7 +30831,7 @@
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11" ht="12.75">
-      <c r="A13" s="24"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -30855,7 +30855,7 @@
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" ht="12.75">
-      <c r="A14" s="24"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -30879,7 +30879,7 @@
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" ht="12.75">
-      <c r="A15" s="24"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -30895,7 +30895,7 @@
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" ht="12.75">
-      <c r="A16" s="24"/>
+      <c r="A16" s="26"/>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -30930,7 +30930,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="B5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
@@ -30956,13 +30956,13 @@
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
@@ -30975,11 +30975,11 @@
       <c r="D2" s="31"/>
       <c r="E2" s="31"/>
       <c r="F2" s="31"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
@@ -30988,16 +30988,16 @@
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
       <c r="D3" s="31"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="24"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
@@ -31030,7 +31030,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A5" s="24"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
@@ -31058,7 +31058,7 @@
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="24"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -31086,7 +31086,7 @@
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="24"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -31110,7 +31110,7 @@
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="24"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -31126,7 +31126,7 @@
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="24"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -31142,7 +31142,7 @@
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="24"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -31158,7 +31158,7 @@
       <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="24"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -31174,7 +31174,7 @@
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="24"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -31190,7 +31190,7 @@
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11" ht="12.75">
-      <c r="A13" s="24"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -31206,7 +31206,7 @@
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" ht="12.75">
-      <c r="A14" s="24"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -31222,7 +31222,7 @@
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" ht="12.75">
-      <c r="A15" s="24"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -31238,7 +31238,7 @@
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" ht="12.75">
-      <c r="A16" s="24"/>
+      <c r="A16" s="26"/>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -31274,7 +31274,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -31301,30 +31301,30 @@
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
@@ -31333,16 +31333,16 @@
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
       <c r="D3" s="31"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="24"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
@@ -31375,7 +31375,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A5" s="24"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
@@ -31405,7 +31405,7 @@
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="24"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -31431,7 +31431,7 @@
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="24"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -31455,7 +31455,7 @@
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="24"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -31485,7 +31485,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="24"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -31515,7 +31515,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="24"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -31545,7 +31545,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="24"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -31569,7 +31569,7 @@
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="24"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -31590,12 +31590,14 @@
       <c r="H12" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="I12" s="20"/>
+      <c r="I12" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="J12" s="20"/>
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11" ht="12.75">
-      <c r="A13" s="24"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -31619,7 +31621,7 @@
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" ht="12.75">
-      <c r="A14" s="24"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -31640,12 +31642,14 @@
       <c r="H14" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="I14" s="20"/>
+      <c r="I14" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" ht="12.75">
-      <c r="A15" s="24"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -31661,7 +31665,7 @@
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" ht="12.75">
-      <c r="A16" s="24"/>
+      <c r="A16" s="26"/>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -31696,7 +31700,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -31721,13 +31725,13 @@
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
@@ -31738,13 +31742,13 @@
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
@@ -31753,16 +31757,16 @@
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
       <c r="D3" s="31"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="24"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
@@ -31795,7 +31799,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A5" s="24"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
@@ -31825,7 +31829,7 @@
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="24"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -31853,7 +31857,7 @@
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="24"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -31879,7 +31883,7 @@
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="24"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -31903,7 +31907,7 @@
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="24"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -31933,7 +31937,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="24"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -31957,7 +31961,7 @@
       <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="24"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -31978,12 +31982,14 @@
       <c r="H11" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="I11" s="20"/>
+      <c r="I11" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="J11" s="20"/>
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="24"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -32007,7 +32013,7 @@
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11" ht="12.75">
-      <c r="A13" s="24"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -32028,12 +32034,14 @@
       <c r="H13" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="I13" s="20"/>
+      <c r="I13" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" ht="12.75">
-      <c r="A14" s="24"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -32049,7 +32057,7 @@
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" ht="12.75">
-      <c r="A15" s="24"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -32065,7 +32073,7 @@
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" ht="12.75">
-      <c r="A16" s="24"/>
+      <c r="A16" s="26"/>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -32099,9 +32107,9 @@
   </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -32123,13 +32131,13 @@
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
@@ -32140,13 +32148,13 @@
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
@@ -32155,16 +32163,16 @@
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
       <c r="D3" s="31"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="24"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
@@ -32197,7 +32205,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A5" s="24"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
@@ -32227,7 +32235,7 @@
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="24"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -32255,7 +32263,7 @@
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="24"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -32281,7 +32289,7 @@
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="24"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -32307,7 +32315,7 @@
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="24"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -32329,7 +32337,7 @@
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="24"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -32359,7 +32367,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="24"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -32389,7 +32397,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="24"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -32413,7 +32421,7 @@
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11" ht="12.75">
-      <c r="A13" s="24"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -32434,12 +32442,14 @@
       <c r="H13" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="I13" s="20"/>
+      <c r="I13" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" ht="12.75">
-      <c r="A14" s="24"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -32463,7 +32473,7 @@
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" ht="12.75">
-      <c r="A15" s="24"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -32484,12 +32494,14 @@
       <c r="H15" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="I15" s="20"/>
+      <c r="I15" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="J15" s="20"/>
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" ht="12.75">
-      <c r="A16" s="24"/>
+      <c r="A16" s="26"/>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>12</v>

--- a/db/db-challenge2/データベース定義書-chatwork.xlsx
+++ b/db/db-challenge2/データベース定義書-chatwork.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23014"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C6DC688-5309-4872-98DB-52C4937DB08E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7991DF14-7EDB-4A4E-90BE-59EE9C1D4E69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="4" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="127">
   <si>
     <t>改定履歴</t>
   </si>
@@ -697,7 +697,7 @@
     <t>chatroom_id</t>
   </si>
   <si>
-    <t>FK</t>
+    <t>FK,PK</t>
   </si>
   <si>
     <t>参加ユーザーID</t>
@@ -749,6 +749,9 @@
   </si>
   <si>
     <t>created_by_user_id</t>
+  </si>
+  <si>
+    <t>FK</t>
   </si>
   <si>
     <t>更新ユーザーID</t>
@@ -30929,9 +30932,9 @@
   </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="B5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:D1"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -31591,7 +31594,7 @@
         <v>61</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="J12" s="20"/>
       <c r="K12" s="15"/>
@@ -31627,10 +31630,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>60</v>
@@ -31643,7 +31646,7 @@
         <v>61</v>
       </c>
       <c r="I14" s="20" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
@@ -31738,7 +31741,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
@@ -31805,10 +31808,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>60</v>
@@ -31851,7 +31854,7 @@
         <v>61</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
@@ -31863,10 +31866,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>66</v>
@@ -31889,10 +31892,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>66</v>
@@ -31983,7 +31986,7 @@
         <v>61</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="J11" s="20"/>
       <c r="K11" s="15"/>
@@ -32019,10 +32022,10 @@
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>60</v>
@@ -32035,7 +32038,7 @@
         <v>61</v>
       </c>
       <c r="I13" s="20" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
@@ -32107,7 +32110,7 @@
   </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
@@ -32144,7 +32147,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
@@ -32211,10 +32214,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>60</v>
@@ -32257,7 +32260,7 @@
         <v>61</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
@@ -32269,10 +32272,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>60</v>
@@ -32295,10 +32298,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>66</v>
@@ -32321,10 +32324,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>81</v>
@@ -32343,10 +32346,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>44</v>
@@ -32363,7 +32366,7 @@
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75">
@@ -32443,7 +32446,7 @@
         <v>61</v>
       </c>
       <c r="I13" s="20" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
@@ -32479,10 +32482,10 @@
         <v>11</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>60</v>
@@ -32495,7 +32498,7 @@
         <v>61</v>
       </c>
       <c r="I15" s="20" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="J15" s="20"/>
       <c r="K15" s="20"/>
